--- a/Data/3/NewYear-3.xlsx
+++ b/Data/3/NewYear-3.xlsx
@@ -1,23 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\si140\PJ\SI140A-proj\Data\3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCDA078-F350-4D76-9E72-71FDE3AC9E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="3380" yWindow="3380" windowWidth="18900" windowHeight="11770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="红包收入" sheetId="1" r:id="rId3"/>
-    <sheet name="红包数据统计" sheetId="2" r:id="rId4"/>
+    <sheet name="红包收入" sheetId="1" r:id="rId1"/>
+    <sheet name="红包数据统计" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="false"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>昵称</t>
   </si>
@@ -55,27 +70,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
+  <fonts count="2">
     <font>
+      <sz val="11"/>
       <name val="Microsoft YaHei"/>
     </font>
     <font>
-      <name val="等线"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <color rgb="FF175CEB"/>
-      <sz val="10"/>
-      <u/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Segoe UI Symbol"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Microsoft YaHei"/>
     </font>
   </fonts>
   <fills count="2">
@@ -94,10 +102,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs>
-    <xf fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -105,31 +119,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" xfId="0">
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="false" shrinkToFit="false"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="1" xfId="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles>
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -246,12 +270,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -269,9 +293,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -289,7 +313,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -324,7 +348,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -341,7 +365,7 @@
             <a:tint val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -359,42 +383,42 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="红包收入">
-    <tabColor/>
-  </sheetPr>
-  <dimension ref="D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="红包收入"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showGridLines="true" rightToLeft="false" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="13" defaultRowHeight="18" customHeight="true"/>
+  <sheetFormatPr defaultColWidth="14.15234375" defaultRowHeight="18" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" ht="18" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="18" customHeight="1">
+      <c r="A2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>5</v>
       </c>
       <c r="B2">
         <v>1339.54</v>
@@ -403,72 +427,74 @@
         <v>1200</v>
       </c>
       <c r="D2">
-        <f>=-B2+C2</f>
-        <v>-139.54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <f>-B2+C2</f>
+        <v>-139.53999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18" customHeight="1">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>1200</v>
       </c>
       <c r="D3">
-        <f>=-B3+C3</f>
+        <f>-B3+C3</f>
         <v>1200</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" ht="18" customHeight="1">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>1221.39</v>
+        <v>1221.3900000000001</v>
       </c>
       <c r="C4">
         <v>1200</v>
       </c>
       <c r="D4">
-        <f>=-B4+C4</f>
+        <f>-B4+C4</f>
         <v>-21.3900000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="1:4" ht="18" customHeight="1">
       <c r="B5">
-        <f>=SUM(B2:B4)</f>
-        <v>2560.93</v>
+        <f>SUM(B2:B4)</f>
+        <v>2560.9300000000003</v>
       </c>
       <c r="C5">
-        <f>=SUM(C2:C4)</f>
+        <f>SUM(C2:C4)</f>
         <v>3600</v>
       </c>
       <c r="D5">
-        <f>=SUM(D2:D4)</f>
+        <f>SUM(D2:D4)</f>
         <v>1039.07</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="红包数据统计">
-    <tabColor/>
-  </sheetPr>
-  <dimension ref="A65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="红包数据统计"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView showGridLines="true" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:E61"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="13" defaultRowHeight="18" customHeight="true"/>
+  <sheetFormatPr defaultColWidth="14.15234375" defaultRowHeight="18" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" ht="18" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="C1">
         <v>1</v>
@@ -480,883 +506,995 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7" ht="18" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="7">
         <v>26.77</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="7">
         <v>26.68</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="7">
         <v>6.55</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="1:7" ht="18" customHeight="1">
+      <c r="A3" s="5"/>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="7">
         <v>37.01</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="7">
         <v>9.89</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="7">
         <v>13.1</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="1:7" ht="18" customHeight="1">
+      <c r="A4" s="5"/>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>19.83</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="7">
+        <v>19.829999999999998</v>
+      </c>
+      <c r="D4" s="7">
         <v>23.87</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="7">
         <v>16.3</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="1:7" ht="18" customHeight="1">
+      <c r="A5" s="5"/>
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="7">
         <v>29.88</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="7">
         <v>29.48</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="7">
         <v>0.64</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="1:7" ht="18" customHeight="1">
+      <c r="A6" s="5"/>
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="7">
         <v>21.3</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="7">
         <v>12.21</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="7">
         <v>26.49</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="1:7" ht="18" customHeight="1">
+      <c r="A7" s="5"/>
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="7">
         <v>22.35</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="7">
         <v>28.6</v>
       </c>
-      <c r="E7">
-        <v>9.05</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
+      <c r="E7" s="7">
+        <v>9.0500000000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18" customHeight="1">
+      <c r="A8" s="5"/>
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="7">
         <v>7.17</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="7">
         <v>47.27</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="7">
         <v>5.56</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="1:7" ht="18" customHeight="1">
+      <c r="A9" s="5"/>
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="7">
         <v>28.77</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="7">
         <v>24.38</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="7">
         <v>6.85</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="1:7" ht="18" customHeight="1">
+      <c r="A10" s="5"/>
       <c r="B10">
         <v>9</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="7">
         <v>10.34</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="7">
         <v>31</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="7">
         <v>18.66</v>
       </c>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="1:7" ht="18" customHeight="1">
+      <c r="A11" s="5"/>
       <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11">
-        <v>39.88</v>
-      </c>
-      <c r="D11">
+      <c r="C11" s="7">
+        <v>39.880000000000003</v>
+      </c>
+      <c r="D11" s="7">
         <v>5.83</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="7">
         <v>14.29</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="5" t="s">
-        <v>10</v>
+    <row r="12" spans="1:7" ht="18" customHeight="1">
+      <c r="A12" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="7">
         <v>38.85</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="7">
         <v>17.39</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="7">
         <v>3.76</v>
       </c>
-      <c r="G12" s="5" t="s"/>
-    </row>
-    <row r="13" spans="2:7">
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="18" customHeight="1">
+      <c r="A13" s="5"/>
       <c r="B13">
         <v>2</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="7">
         <v>24.71</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="7">
         <v>30.44</v>
       </c>
-      <c r="E13">
-        <v>4.85</v>
-      </c>
-      <c r="G13" s="6" t="s"/>
-    </row>
-    <row r="14" spans="2:7">
+      <c r="E13" s="7">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" ht="18" customHeight="1">
+      <c r="A14" s="5"/>
       <c r="B14">
         <v>3</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="7">
         <v>9.11</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="7">
         <v>25.66</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="7">
         <v>25.23</v>
       </c>
-      <c r="G14" s="6" t="s"/>
-    </row>
-    <row r="15" spans="2:7">
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" ht="18" customHeight="1">
+      <c r="A15" s="5"/>
       <c r="B15">
         <v>4</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="7">
         <v>13.93</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="7">
         <v>44.21</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="7">
         <v>1.86</v>
       </c>
-      <c r="G15" s="6" t="s"/>
-    </row>
-    <row r="16" spans="2:7">
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" ht="18" customHeight="1">
+      <c r="A16" s="5"/>
       <c r="B16">
         <v>5</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="7">
         <v>25.77</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="7">
         <v>1.71</v>
       </c>
-      <c r="E16">
-        <v>32.52</v>
-      </c>
-      <c r="G16" s="6" t="s"/>
-    </row>
-    <row r="17" spans="2:7">
+      <c r="E16" s="7">
+        <v>32.520000000000003</v>
+      </c>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" ht="18" customHeight="1">
+      <c r="A17" s="5"/>
       <c r="B17">
         <v>6</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="7">
         <v>19.22</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="7">
         <v>30.39</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="7">
         <v>10.39</v>
       </c>
-      <c r="G17" s="6" t="s"/>
-    </row>
-    <row r="18" spans="2:7">
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" ht="18" customHeight="1">
+      <c r="A18" s="5"/>
       <c r="B18">
         <v>7</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="7">
         <v>21.04</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="7">
         <v>3.76</v>
       </c>
-      <c r="E18">
-        <v>35.2</v>
-      </c>
-      <c r="G18" s="6" t="s"/>
-    </row>
-    <row r="19" spans="2:7">
+      <c r="E18" s="7">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" ht="18" customHeight="1">
+      <c r="A19" s="5"/>
       <c r="B19">
         <v>8</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="7">
         <v>36.14</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="7">
         <v>19.25</v>
       </c>
-      <c r="E19">
-        <v>4.61</v>
-      </c>
-      <c r="G19" s="6" t="s"/>
-    </row>
-    <row r="20" spans="2:7">
+      <c r="E19" s="7">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" ht="18" customHeight="1">
+      <c r="A20" s="5"/>
       <c r="B20">
         <v>9</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="7">
         <v>38.82</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="7">
         <v>17.41</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="7">
         <v>3.77</v>
       </c>
-      <c r="G20" s="6" t="s"/>
-    </row>
-    <row r="21" spans="2:7">
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" ht="18" customHeight="1">
+      <c r="A21" s="5"/>
       <c r="B21">
         <v>10</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="7">
         <v>18.37</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="7">
         <v>14.97</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="7">
         <v>26.66</v>
       </c>
-      <c r="G21" s="6" t="s"/>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" ht="16.5">
       <c r="A22" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="7">
         <v>18.22</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="7">
         <v>9.69</v>
       </c>
-      <c r="E22">
-        <v>32.09</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5">
+      <c r="E22" s="7">
+        <v>32.090000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="16.5">
+      <c r="A23" s="5"/>
       <c r="B23">
         <v>2</v>
       </c>
-      <c r="C23">
-        <v>8.78</v>
-      </c>
-      <c r="D23">
-        <v>35.12</v>
-      </c>
-      <c r="E23">
-        <v>16.1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
+      <c r="C23" s="7">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="D23" s="7">
+        <v>35.119999999999997</v>
+      </c>
+      <c r="E23" s="7">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16.5">
+      <c r="A24" s="5"/>
       <c r="B24">
         <v>3</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="7">
         <v>14.15</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="7">
         <v>2.98</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="7">
         <v>42.87</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="1:7" ht="16.5">
+      <c r="A25" s="5"/>
       <c r="B25">
         <v>4</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="7">
         <v>29.54</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="7">
         <v>14.21</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="7">
         <v>16.25</v>
       </c>
     </row>
-    <row r="26" spans="2:5">
+    <row r="26" spans="1:7" ht="16.5">
+      <c r="A26" s="5"/>
       <c r="B26">
         <v>5</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="7">
         <v>22.21</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="7">
         <v>15.4</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="7">
         <v>22.39</v>
       </c>
     </row>
-    <row r="27" spans="2:5">
+    <row r="27" spans="1:7" ht="16.5">
+      <c r="A27" s="5"/>
       <c r="B27">
         <v>6</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="7">
         <v>21.97</v>
       </c>
-      <c r="D27">
-        <v>4.9</v>
-      </c>
-      <c r="E27">
-        <v>33.13</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5">
+      <c r="D27" s="7">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E27" s="7">
+        <v>33.130000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="16.5">
+      <c r="A28" s="5"/>
       <c r="B28">
         <v>7</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="7">
         <v>13.64</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="7">
         <v>14.16</v>
       </c>
-      <c r="E28">
-        <v>32.2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5">
+      <c r="E28" s="7">
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="16.5">
+      <c r="A29" s="5"/>
       <c r="B29">
         <v>8</v>
       </c>
-      <c r="C29">
-        <v>8.37</v>
-      </c>
-      <c r="D29">
-        <v>36.48</v>
-      </c>
-      <c r="E29">
+      <c r="C29" s="7">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="D29" s="7">
+        <v>36.479999999999997</v>
+      </c>
+      <c r="E29" s="7">
         <v>15.15</v>
       </c>
     </row>
-    <row r="30" spans="2:5">
+    <row r="30" spans="1:7" ht="16.5">
+      <c r="A30" s="5"/>
       <c r="B30">
         <v>9</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="7">
         <v>2.62</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="7">
         <v>38.33</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="7">
         <v>19.05</v>
       </c>
     </row>
-    <row r="31" spans="2:5">
+    <row r="31" spans="1:7" ht="16.5">
+      <c r="A31" s="5"/>
       <c r="B31">
         <v>10</v>
       </c>
-      <c r="C31">
-        <v>36.66</v>
-      </c>
-      <c r="D31">
+      <c r="C31" s="7">
+        <v>36.659999999999997</v>
+      </c>
+      <c r="D31" s="7">
         <v>6.12</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="7">
         <v>17.22</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="7" t="s">
-        <v>10</v>
+    <row r="32" spans="1:7" ht="16.5">
+      <c r="A32" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="7">
         <v>15.52</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="7">
         <v>17.75</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="7">
         <v>26.73</v>
       </c>
     </row>
-    <row r="33" spans="2:5">
+    <row r="33" spans="1:5" ht="16.5">
+      <c r="A33" s="5"/>
       <c r="B33">
         <v>2</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="7">
         <v>30.49</v>
       </c>
-      <c r="D33">
-        <v>16.69</v>
-      </c>
-      <c r="E33">
+      <c r="D33" s="7">
+        <v>16.690000000000001</v>
+      </c>
+      <c r="E33" s="7">
         <v>12.82</v>
       </c>
     </row>
-    <row r="34" spans="2:5">
+    <row r="34" spans="1:5" ht="16.5">
+      <c r="A34" s="5"/>
       <c r="B34">
         <v>3</v>
       </c>
-      <c r="C34">
-        <v>19.83</v>
-      </c>
-      <c r="D34">
+      <c r="C34" s="7">
+        <v>19.829999999999998</v>
+      </c>
+      <c r="D34" s="7">
         <v>16.32</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="7">
         <v>23.85</v>
       </c>
     </row>
-    <row r="35" spans="2:5">
+    <row r="35" spans="1:5" ht="16.5">
+      <c r="A35" s="5"/>
       <c r="B35">
         <v>4</v>
       </c>
-      <c r="C35">
-        <v>8.37</v>
-      </c>
-      <c r="D35">
+      <c r="C35" s="7">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="D35" s="7">
         <v>2.58</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="7">
         <v>49.05</v>
       </c>
     </row>
-    <row r="36" spans="2:5">
+    <row r="36" spans="1:5" ht="16.5">
+      <c r="A36" s="5"/>
       <c r="B36">
         <v>5</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="7">
         <v>6.75</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="7">
         <v>53.1</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="7">
         <v>0.15</v>
       </c>
     </row>
-    <row r="37" spans="2:5">
+    <row r="37" spans="1:5" ht="16.5">
+      <c r="A37" s="5"/>
       <c r="B37">
         <v>6</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="7">
         <v>26.07</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="7">
         <v>23.11</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="7">
         <v>10.82</v>
       </c>
     </row>
-    <row r="38" spans="2:5">
+    <row r="38" spans="1:5" ht="16.5">
+      <c r="A38" s="5"/>
       <c r="B38">
         <v>7</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="7">
         <v>34.32</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="7">
         <v>12.4</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="7">
         <v>13.28</v>
       </c>
     </row>
-    <row r="39" spans="2:5">
+    <row r="39" spans="1:5" ht="16.5">
+      <c r="A39" s="5"/>
       <c r="B39">
         <v>8</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="7">
         <v>29.84</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="7">
         <v>21.09</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="7">
         <v>9.07</v>
       </c>
     </row>
-    <row r="40" spans="2:5">
+    <row r="40" spans="1:5" ht="16.5">
+      <c r="A40" s="5"/>
       <c r="B40">
         <v>9</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="7">
         <v>25.96</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="7">
         <v>16.45</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="7">
         <v>17.59</v>
       </c>
     </row>
-    <row r="41" spans="2:5">
+    <row r="41" spans="1:5" ht="16.5">
+      <c r="A41" s="5"/>
       <c r="B41">
         <v>10</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="7">
         <v>25.07</v>
       </c>
-      <c r="D41">
-        <v>19.6</v>
-      </c>
-      <c r="E41">
+      <c r="D41" s="7">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="E41" s="7">
         <v>15.33</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" ht="16.5">
       <c r="A42" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="7">
         <v>7.95</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="7">
         <v>16.41</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="7">
         <v>35.64</v>
       </c>
     </row>
-    <row r="43" spans="2:5">
+    <row r="43" spans="1:5" ht="16.5">
+      <c r="A43" s="5"/>
       <c r="B43">
         <v>2</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="7">
         <v>33.79</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="7">
         <v>22.41</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="7">
         <v>3.8</v>
       </c>
     </row>
-    <row r="44" spans="2:5">
+    <row r="44" spans="1:5" ht="16.5">
+      <c r="A44" s="5"/>
       <c r="B44">
         <v>3</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="7">
         <v>11.71</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="7">
         <v>32.64</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="7">
         <v>15.65</v>
       </c>
     </row>
-    <row r="45" spans="2:5">
+    <row r="45" spans="1:5" ht="16.5">
+      <c r="A45" s="5"/>
       <c r="B45">
         <v>4</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="7">
         <v>2.68</v>
       </c>
-      <c r="D45">
-        <v>38.95</v>
-      </c>
-      <c r="E45">
+      <c r="D45" s="7">
+        <v>38.950000000000003</v>
+      </c>
+      <c r="E45" s="7">
         <v>18.37</v>
       </c>
     </row>
-    <row r="46" spans="2:5">
+    <row r="46" spans="1:5" ht="16.5">
+      <c r="A46" s="5"/>
       <c r="B46">
         <v>5</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="7">
         <v>33.07</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="7">
         <v>7.39</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="7">
         <v>19.54</v>
       </c>
     </row>
-    <row r="47" spans="2:5">
+    <row r="47" spans="1:5" ht="16.5">
+      <c r="A47" s="5"/>
       <c r="B47">
         <v>6</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="7">
         <v>20.51</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="7">
         <v>31.52</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="7">
         <v>7.97</v>
       </c>
     </row>
-    <row r="48" spans="2:5">
+    <row r="48" spans="1:5" ht="16.5">
+      <c r="A48" s="5"/>
       <c r="B48">
         <v>7</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="7">
         <v>19.79</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="7">
         <v>28.33</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="7">
         <v>11.88</v>
       </c>
     </row>
-    <row r="49" spans="2:5">
+    <row r="49" spans="1:5" ht="16.5">
+      <c r="A49" s="5"/>
       <c r="B49">
         <v>8</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="7">
         <v>6.29</v>
       </c>
-      <c r="D49">
-        <v>16.51</v>
-      </c>
-      <c r="E49">
-        <v>37.2</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5">
+      <c r="D49" s="7">
+        <v>16.510000000000002</v>
+      </c>
+      <c r="E49" s="7">
+        <v>37.200000000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="16.5">
+      <c r="A50" s="5"/>
       <c r="B50">
         <v>9</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="7">
         <v>16.2</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="7">
         <v>5.78</v>
       </c>
-      <c r="E50">
-        <v>38.02</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5">
+      <c r="E50" s="7">
+        <v>38.020000000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="16.5">
+      <c r="A51" s="5"/>
       <c r="B51">
         <v>10</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="7">
         <v>2</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="7">
         <v>5.47</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="7">
         <v>52.53</v>
       </c>
     </row>
-    <row r="52" spans="2:5">
+    <row r="52" spans="1:5" ht="16.5">
+      <c r="A52" s="5"/>
       <c r="B52">
-        <f>=B42+10</f>
+        <f t="shared" ref="B52:B61" si="0">B42+10</f>
         <v>11</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="7">
         <v>31.86</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="7">
         <v>24.54</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="7">
         <v>3.6</v>
       </c>
     </row>
-    <row r="53" spans="2:5">
+    <row r="53" spans="1:5" ht="16.5">
+      <c r="A53" s="5"/>
       <c r="B53">
-        <f>=B43+10</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="7">
         <v>12.37</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="7">
         <v>8.98</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="7">
         <v>38.65</v>
       </c>
     </row>
-    <row r="54" spans="2:5">
+    <row r="54" spans="1:5" ht="16.5">
+      <c r="A54" s="5"/>
       <c r="B54">
-        <f>=B44+10</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="7">
         <v>19.29</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="7">
         <v>23.16</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="7">
         <v>17.55</v>
       </c>
     </row>
-    <row r="55" spans="2:5">
+    <row r="55" spans="1:5" ht="16.5">
+      <c r="A55" s="5"/>
       <c r="B55">
-        <f>=B45+10</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C55">
-        <v>17.15</v>
-      </c>
-      <c r="D55">
-        <v>4.36</v>
-      </c>
-      <c r="E55">
+      <c r="C55" s="7">
+        <v>17.149999999999999</v>
+      </c>
+      <c r="D55" s="7">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="E55" s="7">
         <v>38.49</v>
       </c>
     </row>
-    <row r="56" spans="2:5">
+    <row r="56" spans="1:5" ht="16.5">
+      <c r="A56" s="5"/>
       <c r="B56">
-        <f>=B46+10</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="7">
         <v>12.49</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="7">
         <v>21.57</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="7">
         <v>25.94</v>
       </c>
     </row>
-    <row r="57" spans="2:5">
+    <row r="57" spans="1:5" ht="16.5">
+      <c r="A57" s="5"/>
       <c r="B57">
-        <f>=B47+10</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C57">
-        <v>38.16</v>
-      </c>
-      <c r="D57">
+      <c r="C57" s="7">
+        <v>38.159999999999997</v>
+      </c>
+      <c r="D57" s="7">
         <v>5.28</v>
       </c>
-      <c r="E57">
-        <v>16.56</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5">
+      <c r="E57" s="7">
+        <v>16.559999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="16.5">
+      <c r="A58" s="5"/>
       <c r="B58">
-        <f>=B48+10</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="7">
         <v>20.25</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="7">
         <v>6.26</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="7">
         <v>33.49</v>
       </c>
     </row>
-    <row r="59" spans="2:5">
+    <row r="59" spans="1:5" ht="16.5">
+      <c r="A59" s="5"/>
       <c r="B59">
-        <f>=B49+10</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="7">
         <v>31.78</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="7">
         <v>9.15</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="7">
         <v>19.07</v>
       </c>
     </row>
-    <row r="60" spans="2:5">
+    <row r="60" spans="1:5" ht="16.5">
+      <c r="A60" s="5"/>
       <c r="B60">
-        <f>=B50+10</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="7">
         <v>14.37</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="7">
         <v>33.33</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="7">
         <v>12.3</v>
       </c>
     </row>
-    <row r="61" spans="2:5">
+    <row r="61" spans="1:5" ht="16.5">
+      <c r="A61" s="5"/>
       <c r="B61">
-        <f>=B51+10</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="7">
         <v>37.89</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="7">
         <v>17.52</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="7">
         <v>4.59</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="4" t="s"/>
+    <row r="65" spans="1:1" ht="16.5">
+      <c r="A65" s="4"/>
+    </row>
+    <row r="66" spans="1:1" ht="18" customHeight="1">
+      <c r="A66" s="5"/>
+    </row>
+    <row r="67" spans="1:1" ht="18" customHeight="1">
+      <c r="A67" s="5"/>
+    </row>
+    <row r="68" spans="1:1" ht="18" customHeight="1">
+      <c r="A68" s="5"/>
+    </row>
+    <row r="69" spans="1:1" ht="18" customHeight="1">
+      <c r="A69" s="5"/>
+    </row>
+    <row r="70" spans="1:1" ht="18" customHeight="1">
+      <c r="A70" s="5"/>
+    </row>
+    <row r="71" spans="1:1" ht="18" customHeight="1">
+      <c r="A71" s="5"/>
+    </row>
+    <row r="72" spans="1:1" ht="18" customHeight="1">
+      <c r="A72" s="5"/>
+    </row>
+    <row r="73" spans="1:1" ht="18" customHeight="1">
+      <c r="A73" s="5"/>
+    </row>
+    <row r="74" spans="1:1" ht="18" customHeight="1">
+      <c r="A74" s="5"/>
+    </row>
+    <row r="75" spans="1:1" ht="18" customHeight="1">
+      <c r="A75" s="5"/>
+    </row>
+    <row r="76" spans="1:1" ht="18" customHeight="1">
+      <c r="A76" s="5"/>
+    </row>
+    <row r="77" spans="1:1" ht="18" customHeight="1">
+      <c r="A77" s="5"/>
+    </row>
+    <row r="78" spans="1:1" ht="18" customHeight="1">
+      <c r="A78" s="5"/>
+    </row>
+    <row r="79" spans="1:1" ht="18" customHeight="1">
+      <c r="A79" s="5"/>
+    </row>
+    <row r="80" spans="1:1" ht="18" customHeight="1">
+      <c r="A80" s="5"/>
+    </row>
+    <row r="81" spans="1:1" ht="18" customHeight="1">
+      <c r="A81" s="5"/>
+    </row>
+    <row r="82" spans="1:1" ht="18" customHeight="1">
+      <c r="A82" s="5"/>
+    </row>
+    <row r="83" spans="1:1" ht="18" customHeight="1">
+      <c r="A83" s="5"/>
+    </row>
+    <row r="84" spans="1:1" ht="18" customHeight="1">
+      <c r="A84" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1367,5 +1505,7 @@
     <mergeCell ref="A32:A41"/>
     <mergeCell ref="A42:A61"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/3/NewYear-3.xlsx
+++ b/Data/3/NewYear-3.xlsx
@@ -1,23 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView windowWidth="24750" windowHeight="12080" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="红包收入" sheetId="1" r:id="rId3"/>
-    <sheet name="红包数据统计" sheetId="2" r:id="rId4"/>
+    <sheet name="红包收入" sheetId="1" r:id="rId1"/>
+    <sheet name="红包数据统计" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="false"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>昵称</t>
   </si>
@@ -55,38 +66,366 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
+      <sz val="10"/>
       <name val="Microsoft YaHei"/>
+      <charset val="134"/>
     </font>
     <font>
-      <name val="等线"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <color rgb="FF175CEB"/>
-      <sz val="10"/>
-      <u/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Segoe UI Symbol"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <name val="Microsoft YaHei"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -94,47 +433,538 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs>
-    <xf fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="false" shrinkToFit="false"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="1" xfId="0">
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="false" shrinkToFit="false"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="">
       <a:dk1>
@@ -251,7 +1081,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -269,9 +1099,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -289,7 +1119,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -324,7 +1154,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -341,7 +1171,7 @@
             <a:tint val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -359,42 +1189,43 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="红包收入">
-    <tabColor/>
-  </sheetPr>
-  <dimension ref="D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr codeName="红包收入"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showGridLines="true" rightToLeft="false" workbookViewId="0"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="13" defaultRowHeight="18" customHeight="true"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelRow="4" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+    <row r="1" customHeight="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>5</v>
       </c>
       <c r="B2">
         <v>1339.54</v>
@@ -403,25 +1234,25 @@
         <v>1200</v>
       </c>
       <c r="D2">
-        <f>=-B2+C2</f>
+        <f>-B2+C2</f>
         <v>-139.54</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>1200</v>
       </c>
       <c r="D3">
-        <f>=-B3+C3</f>
+        <f>-B3+C3</f>
         <v>1200</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" customHeight="1" spans="1:4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>1221.39</v>
@@ -430,45 +1261,47 @@
         <v>1200</v>
       </c>
       <c r="D4">
-        <f>=-B4+C4</f>
+        <f>-B4+C4</f>
         <v>-21.3900000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" customHeight="1" spans="1:4">
       <c r="B5">
-        <f>=SUM(B2:B4)</f>
+        <f>SUM(B2:B4)</f>
         <v>2560.93</v>
       </c>
       <c r="C5">
-        <f>=SUM(C2:C4)</f>
+        <f>SUM(C2:C4)</f>
         <v>3600</v>
       </c>
       <c r="D5">
-        <f>=SUM(D2:D4)</f>
+        <f>SUM(D2:D4)</f>
         <v>1039.07</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="红包数据统计">
-    <tabColor/>
-  </sheetPr>
-  <dimension ref="A65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr codeName="红包数据统计"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView showGridLines="true" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:E61"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="13" defaultRowHeight="18" customHeight="true"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
+    <row r="1" customHeight="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="C1">
         <v>1</v>
@@ -480,9 +1313,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
+    <row r="2" customHeight="1" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -497,7 +1330,7 @@
         <v>6.55</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" customHeight="1" spans="1:7">
       <c r="B3">
         <v>2</v>
       </c>
@@ -511,7 +1344,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" customHeight="1" spans="1:7">
       <c r="B4">
         <v>3</v>
       </c>
@@ -525,7 +1358,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" customHeight="1" spans="1:7">
       <c r="B5">
         <v>4</v>
       </c>
@@ -539,7 +1372,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" customHeight="1" spans="1:7">
       <c r="B6">
         <v>5</v>
       </c>
@@ -553,7 +1386,7 @@
         <v>26.49</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" customHeight="1" spans="1:7">
       <c r="B7">
         <v>6</v>
       </c>
@@ -567,7 +1400,7 @@
         <v>9.05</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" customHeight="1" spans="1:7">
       <c r="B8">
         <v>7</v>
       </c>
@@ -581,7 +1414,7 @@
         <v>5.56</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" customHeight="1" spans="1:7">
       <c r="B9">
         <v>8</v>
       </c>
@@ -595,7 +1428,7 @@
         <v>6.85</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" customHeight="1" spans="1:7">
       <c r="B10">
         <v>9</v>
       </c>
@@ -609,7 +1442,7 @@
         <v>18.66</v>
       </c>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" customHeight="1" spans="1:7">
       <c r="B11">
         <v>10</v>
       </c>
@@ -623,9 +1456,9 @@
         <v>14.29</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="5" t="s">
-        <v>10</v>
+    <row r="12" customHeight="1" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -639,9 +1472,9 @@
       <c r="E12">
         <v>3.76</v>
       </c>
-      <c r="G12" s="5" t="s"/>
-    </row>
-    <row r="13" spans="2:7">
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:7">
       <c r="B13">
         <v>2</v>
       </c>
@@ -654,9 +1487,8 @@
       <c r="E13">
         <v>4.85</v>
       </c>
-      <c r="G13" s="6" t="s"/>
-    </row>
-    <row r="14" spans="2:7">
+    </row>
+    <row r="14" customHeight="1" spans="1:7">
       <c r="B14">
         <v>3</v>
       </c>
@@ -669,9 +1501,8 @@
       <c r="E14">
         <v>25.23</v>
       </c>
-      <c r="G14" s="6" t="s"/>
-    </row>
-    <row r="15" spans="2:7">
+    </row>
+    <row r="15" customHeight="1" spans="1:7">
       <c r="B15">
         <v>4</v>
       </c>
@@ -684,9 +1515,8 @@
       <c r="E15">
         <v>1.86</v>
       </c>
-      <c r="G15" s="6" t="s"/>
-    </row>
-    <row r="16" spans="2:7">
+    </row>
+    <row r="16" customHeight="1" spans="1:7">
       <c r="B16">
         <v>5</v>
       </c>
@@ -699,9 +1529,8 @@
       <c r="E16">
         <v>32.52</v>
       </c>
-      <c r="G16" s="6" t="s"/>
-    </row>
-    <row r="17" spans="2:7">
+    </row>
+    <row r="17" customHeight="1" spans="1:5">
       <c r="B17">
         <v>6</v>
       </c>
@@ -714,9 +1543,8 @@
       <c r="E17">
         <v>10.39</v>
       </c>
-      <c r="G17" s="6" t="s"/>
-    </row>
-    <row r="18" spans="2:7">
+    </row>
+    <row r="18" customHeight="1" spans="1:5">
       <c r="B18">
         <v>7</v>
       </c>
@@ -729,9 +1557,8 @@
       <c r="E18">
         <v>35.2</v>
       </c>
-      <c r="G18" s="6" t="s"/>
-    </row>
-    <row r="19" spans="2:7">
+    </row>
+    <row r="19" customHeight="1" spans="1:5">
       <c r="B19">
         <v>8</v>
       </c>
@@ -744,9 +1571,8 @@
       <c r="E19">
         <v>4.61</v>
       </c>
-      <c r="G19" s="6" t="s"/>
-    </row>
-    <row r="20" spans="2:7">
+    </row>
+    <row r="20" customHeight="1" spans="1:5">
       <c r="B20">
         <v>9</v>
       </c>
@@ -759,9 +1585,8 @@
       <c r="E20">
         <v>3.77</v>
       </c>
-      <c r="G20" s="6" t="s"/>
-    </row>
-    <row r="21" spans="2:7">
+    </row>
+    <row r="21" customHeight="1" spans="1:5">
       <c r="B21">
         <v>10</v>
       </c>
@@ -774,11 +1599,10 @@
       <c r="E21">
         <v>26.66</v>
       </c>
-      <c r="G21" s="6" t="s"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="4" t="s">
-        <v>5</v>
+    </row>
+    <row r="22" customHeight="1" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -793,7 +1617,7 @@
         <v>32.09</v>
       </c>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" customHeight="1" spans="1:5">
       <c r="B23">
         <v>2</v>
       </c>
@@ -807,7 +1631,7 @@
         <v>16.1</v>
       </c>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" customHeight="1" spans="1:5">
       <c r="B24">
         <v>3</v>
       </c>
@@ -821,7 +1645,7 @@
         <v>42.87</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" customHeight="1" spans="1:5">
       <c r="B25">
         <v>4</v>
       </c>
@@ -835,7 +1659,7 @@
         <v>16.25</v>
       </c>
     </row>
-    <row r="26" spans="2:5">
+    <row r="26" customHeight="1" spans="1:5">
       <c r="B26">
         <v>5</v>
       </c>
@@ -849,7 +1673,7 @@
         <v>22.39</v>
       </c>
     </row>
-    <row r="27" spans="2:5">
+    <row r="27" customHeight="1" spans="1:5">
       <c r="B27">
         <v>6</v>
       </c>
@@ -863,7 +1687,7 @@
         <v>33.13</v>
       </c>
     </row>
-    <row r="28" spans="2:5">
+    <row r="28" customHeight="1" spans="1:5">
       <c r="B28">
         <v>7</v>
       </c>
@@ -877,7 +1701,7 @@
         <v>32.2</v>
       </c>
     </row>
-    <row r="29" spans="2:5">
+    <row r="29" customHeight="1" spans="1:5">
       <c r="B29">
         <v>8</v>
       </c>
@@ -891,7 +1715,7 @@
         <v>15.15</v>
       </c>
     </row>
-    <row r="30" spans="2:5">
+    <row r="30" customHeight="1" spans="1:5">
       <c r="B30">
         <v>9</v>
       </c>
@@ -905,7 +1729,7 @@
         <v>19.05</v>
       </c>
     </row>
-    <row r="31" spans="2:5">
+    <row r="31" customHeight="1" spans="1:5">
       <c r="B31">
         <v>10</v>
       </c>
@@ -919,9 +1743,9 @@
         <v>17.22</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="7" t="s">
-        <v>10</v>
+    <row r="32" customHeight="1" spans="1:5">
+      <c r="A32" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -936,7 +1760,7 @@
         <v>26.73</v>
       </c>
     </row>
-    <row r="33" spans="2:5">
+    <row r="33" customHeight="1" spans="1:5">
       <c r="B33">
         <v>2</v>
       </c>
@@ -950,7 +1774,7 @@
         <v>12.82</v>
       </c>
     </row>
-    <row r="34" spans="2:5">
+    <row r="34" customHeight="1" spans="1:5">
       <c r="B34">
         <v>3</v>
       </c>
@@ -964,7 +1788,7 @@
         <v>23.85</v>
       </c>
     </row>
-    <row r="35" spans="2:5">
+    <row r="35" customHeight="1" spans="1:5">
       <c r="B35">
         <v>4</v>
       </c>
@@ -978,7 +1802,7 @@
         <v>49.05</v>
       </c>
     </row>
-    <row r="36" spans="2:5">
+    <row r="36" customHeight="1" spans="1:5">
       <c r="B36">
         <v>5</v>
       </c>
@@ -992,7 +1816,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="37" spans="2:5">
+    <row r="37" customHeight="1" spans="1:5">
       <c r="B37">
         <v>6</v>
       </c>
@@ -1006,7 +1830,7 @@
         <v>10.82</v>
       </c>
     </row>
-    <row r="38" spans="2:5">
+    <row r="38" customHeight="1" spans="1:5">
       <c r="B38">
         <v>7</v>
       </c>
@@ -1020,7 +1844,7 @@
         <v>13.28</v>
       </c>
     </row>
-    <row r="39" spans="2:5">
+    <row r="39" customHeight="1" spans="1:5">
       <c r="B39">
         <v>8</v>
       </c>
@@ -1034,7 +1858,7 @@
         <v>9.07</v>
       </c>
     </row>
-    <row r="40" spans="2:5">
+    <row r="40" customHeight="1" spans="1:5">
       <c r="B40">
         <v>9</v>
       </c>
@@ -1048,7 +1872,7 @@
         <v>17.59</v>
       </c>
     </row>
-    <row r="41" spans="2:5">
+    <row r="41" customHeight="1" spans="1:5">
       <c r="B41">
         <v>10</v>
       </c>
@@ -1062,9 +1886,9 @@
         <v>15.33</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="4" t="s">
-        <v>11</v>
+    <row r="42" customHeight="1" spans="1:5">
+      <c r="A42" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -1079,7 +1903,7 @@
         <v>35.64</v>
       </c>
     </row>
-    <row r="43" spans="2:5">
+    <row r="43" customHeight="1" spans="1:5">
       <c r="B43">
         <v>2</v>
       </c>
@@ -1093,7 +1917,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="44" spans="2:5">
+    <row r="44" customHeight="1" spans="1:5">
       <c r="B44">
         <v>3</v>
       </c>
@@ -1107,7 +1931,7 @@
         <v>15.65</v>
       </c>
     </row>
-    <row r="45" spans="2:5">
+    <row r="45" customHeight="1" spans="1:5">
       <c r="B45">
         <v>4</v>
       </c>
@@ -1121,7 +1945,7 @@
         <v>18.37</v>
       </c>
     </row>
-    <row r="46" spans="2:5">
+    <row r="46" customHeight="1" spans="1:5">
       <c r="B46">
         <v>5</v>
       </c>
@@ -1135,7 +1959,7 @@
         <v>19.54</v>
       </c>
     </row>
-    <row r="47" spans="2:5">
+    <row r="47" customHeight="1" spans="1:5">
       <c r="B47">
         <v>6</v>
       </c>
@@ -1149,7 +1973,7 @@
         <v>7.97</v>
       </c>
     </row>
-    <row r="48" spans="2:5">
+    <row r="48" customHeight="1" spans="1:5">
       <c r="B48">
         <v>7</v>
       </c>
@@ -1163,7 +1987,7 @@
         <v>11.88</v>
       </c>
     </row>
-    <row r="49" spans="2:5">
+    <row r="49" customHeight="1" spans="2:5">
       <c r="B49">
         <v>8</v>
       </c>
@@ -1177,7 +2001,7 @@
         <v>37.2</v>
       </c>
     </row>
-    <row r="50" spans="2:5">
+    <row r="50" customHeight="1" spans="2:5">
       <c r="B50">
         <v>9</v>
       </c>
@@ -1191,7 +2015,7 @@
         <v>38.02</v>
       </c>
     </row>
-    <row r="51" spans="2:5">
+    <row r="51" customHeight="1" spans="2:5">
       <c r="B51">
         <v>10</v>
       </c>
@@ -1205,9 +2029,9 @@
         <v>52.53</v>
       </c>
     </row>
-    <row r="52" spans="2:5">
+    <row r="52" customHeight="1" spans="2:5">
       <c r="B52">
-        <f>=B42+10</f>
+        <f t="shared" ref="B52:B61" si="0">B42+10</f>
         <v>11</v>
       </c>
       <c r="C52">
@@ -1220,9 +2044,9 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="53" spans="2:5">
+    <row r="53" customHeight="1" spans="2:5">
       <c r="B53">
-        <f>=B43+10</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C53">
@@ -1235,9 +2059,9 @@
         <v>38.65</v>
       </c>
     </row>
-    <row r="54" spans="2:5">
+    <row r="54" customHeight="1" spans="2:5">
       <c r="B54">
-        <f>=B44+10</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C54">
@@ -1250,9 +2074,9 @@
         <v>17.55</v>
       </c>
     </row>
-    <row r="55" spans="2:5">
+    <row r="55" customHeight="1" spans="2:5">
       <c r="B55">
-        <f>=B45+10</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C55">
@@ -1265,9 +2089,9 @@
         <v>38.49</v>
       </c>
     </row>
-    <row r="56" spans="2:5">
+    <row r="56" customHeight="1" spans="2:5">
       <c r="B56">
-        <f>=B46+10</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C56">
@@ -1280,9 +2104,9 @@
         <v>25.94</v>
       </c>
     </row>
-    <row r="57" spans="2:5">
+    <row r="57" customHeight="1" spans="2:5">
       <c r="B57">
-        <f>=B47+10</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C57">
@@ -1295,9 +2119,9 @@
         <v>16.56</v>
       </c>
     </row>
-    <row r="58" spans="2:5">
+    <row r="58" customHeight="1" spans="2:5">
       <c r="B58">
-        <f>=B48+10</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C58">
@@ -1310,9 +2134,9 @@
         <v>33.49</v>
       </c>
     </row>
-    <row r="59" spans="2:5">
+    <row r="59" customHeight="1" spans="2:5">
       <c r="B59">
-        <f>=B49+10</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C59">
@@ -1325,9 +2149,9 @@
         <v>19.07</v>
       </c>
     </row>
-    <row r="60" spans="2:5">
+    <row r="60" customHeight="1" spans="2:5">
       <c r="B60">
-        <f>=B50+10</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C60">
@@ -1340,9 +2164,9 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="61" spans="2:5">
+    <row r="61" customHeight="1" spans="2:5">
       <c r="B61">
-        <f>=B51+10</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C61">
@@ -1355,17 +2179,19 @@
         <v>4.59</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="4" t="s"/>
+    <row r="65" customHeight="1" spans="1:1">
+      <c r="A65" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A12:A21"/>
     <mergeCell ref="A22:A31"/>
-    <mergeCell ref="A65:A84"/>
     <mergeCell ref="A32:A41"/>
     <mergeCell ref="A42:A61"/>
+    <mergeCell ref="A65:A84"/>
   </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>